--- a/cards/system/system.xlsx
+++ b/cards/system/system.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,645 +440,493 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>sys_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>sys_init</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sys_code</t>
+          <t>sys_proc_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sys_init</t>
+          <t>sys_acc_numb</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>sys_proc_id</t>
+          <t>sys_acc_sold</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>sys_acc_numb</t>
+          <t>sys_cen_code</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sys_acc_sold</t>
+          <t>sys_dom_code</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sys_cen_code</t>
+          <t>sys_ica_code</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>sys_dom_code</t>
+          <t>sys_reg_code</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>sys_ica_code</t>
+          <t>sys_acqu_iden</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>sys_reg_code</t>
+          <t>sys_corp_iden</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>sys_acqu_iden</t>
+          <t>sys_corp_name</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>sys_corp_iden</t>
+          <t>sys_stat_code</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>sys_corp_name</t>
+          <t>sys_acc_numb_mxp</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sys_stat_code</t>
+          <t>sys_acqu_busi_iden</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sys_acc_numb_mxp</t>
+          <t>sys_sett_curr_code</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>sys_acqu_busi_iden</t>
+          <t>sys_sett_inst_iden</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sett_curr_code</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sett_inst_iden</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>20bcc3bf-d1ce-4fed-b546-532ee6bac5cb</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VISA</t>
+        </is>
       </c>
       <c r="C2" t="n">
+        <v>999</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Visa_acct</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>999999</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>VISA</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>999</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Visa_acct</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>VISA</t>
-        </is>
-      </c>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>VISA INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>visa_mxp_acct</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="O2" t="n">
+        <v>999999</v>
+      </c>
+      <c r="P2" t="n">
         <v>28</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>00cf7371-44d0-4302-ae4c-256754a44366</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MCS</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>cis_acct</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>118</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>cis_acct</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>12888</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3" t="n">
+        <v>12888</v>
+      </c>
+      <c r="I3" t="n">
         <v>13</v>
       </c>
+      <c r="J3" t="n">
+        <v>538815</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>538815</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>MCI</t>
-        </is>
-      </c>
+          <t>MASTERCARD INT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MASTERCARD INT</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>cis_mxp_acct</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>538815</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="O3" t="n">
+        <v>538815</v>
+      </c>
+      <c r="P3" t="n">
         <v>28</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>f7d43022-89b6-479f-8b17-e8617ce47673</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>amex_acct</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4104</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>371111</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>AMEX</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>209</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>amex_acct</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>4104</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>371111</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>AMEX</t>
-        </is>
-      </c>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>American Express</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
           <t>amex_mxp_acct</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>371111</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="O4" t="n">
+        <v>371111</v>
+      </c>
+      <c r="P4" t="n">
         <v>28</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>352d866d-5e22-4c82-bb2d-a1303ed4ecb1</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PULSE</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>01900935280022</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>172672</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1726726723</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>PULSE</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>172</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>01900935280022</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>172672</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1726726723</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
           <t>PULSE</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>PULSE</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
           <t>MXPPULSE999</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>17267267</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="O5" t="n">
+        <v>17267267</v>
+      </c>
+      <c r="P5" t="n">
         <v>28</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>066616b2-ef52-4679-bdb0-84ae4a53b92a</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10344</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31870524</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>UPI</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>103</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>10344</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>20</v>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>31870524</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>UPI</t>
-        </is>
-      </c>
+          <t>UNION PAY INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>UNION PAY INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>MXPUPI999</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>31870524</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="O6" t="n">
+        <v>31870524</v>
+      </c>
+      <c r="P6" t="n">
         <v>28</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>c8ff3e94-190c-4769-94f7-b0febc2a217a</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="n">
         <v>9</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>22-33-44-55</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="I7" t="n">
         <v>2</v>
       </c>
+      <c r="J7" t="n">
+        <v>356999</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DCI</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>356999</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
           <t>DCI</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>DCI</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>22-33-44-55</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>356999</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="O7" t="n">
+        <v>356999</v>
+      </c>
+      <c r="P7" t="n">
         <v>28</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ae6e7ac1-3b5b-4696-bc41-c985561eaf18</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="n">
         <v>5241</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>NEPS</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>NEPS</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>NEPS SWITCH</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>45511.29528810951</v>
+      <c r="R8" s="2" t="n">
+        <v>45511.29528811343</v>
       </c>
     </row>
   </sheetData>

--- a/cards/system/system.xlsx
+++ b/cards/system/system.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,493 +440,645 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sys_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sys_init</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>sys_proc_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>sys_acc_numb</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>sys_acc_sold</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sys_cen_code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sys_dom_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>sys_ica_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>sys_reg_code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sys_acqu_iden</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sys_corp_iden</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>sys_corp_name</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>sys_stat_code</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>sys_acc_numb_mxp</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sys_acqu_busi_iden</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>sys_sett_curr_code</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>sys_sett_inst_iden</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20bcc3bf-d1ce-4fed-b546-532ee6bac5cb</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>VISA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>999</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Visa_acct</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>9999</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>999999</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>VISA</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>visa_mxp_acct</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>999999</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>28</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>00cf7371-44d0-4302-ae4c-256754a44366</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>MCS</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>118</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>cis_acct</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>12888</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>12888</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>13</v>
       </c>
-      <c r="J3" t="n">
-        <v>538815</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>538815</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>MCI</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>MASTERCARD INT</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>cis_mxp_acct</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>538815</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>538815</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>28</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f7d43022-89b6-479f-8b17-e8617ce47673</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>AMEX</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>209</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>amex_acct</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>4104</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>371111</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>371111</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>AMEX</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>American Express</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>amex_mxp_acct</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>371111</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>371111</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>28</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>352d866d-5e22-4c82-bb2d-a1303ed4ecb1</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>PULSE</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>172</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>01900935280022</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>1000000</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>172672</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>1726726723</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>172672</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1726726723</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PULSE</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>PULSE</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>MXPPULSE999</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>17267267</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>17267267</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>28</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>066616b2-ef52-4679-bdb0-84ae4a53b92a</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>UPI</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>103</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>1000000</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>10344</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10344</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>20</v>
       </c>
-      <c r="J6" t="n">
-        <v>31870524</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>31870524</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>UPI</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>UNION PAY INTERNATIONAL</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>MXPUPI999</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>31870524</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>31870524</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>28</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c8ff3e94-190c-4769-94f7-b0febc2a217a</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>22-33-44-55</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>356999</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>356999</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DCI</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>DCI</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>22-33-44-55</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>356999</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>356999</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>28</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ae6e7ac1-3b5b-4696-bc41-c985561eaf18</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>5241</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>NEPS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>NEPS</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>NEPS SWITCH</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" s="2" t="n">
-        <v>45511.29528811343</v>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/SYSTEM/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>45511.29528810951</v>
       </c>
     </row>
   </sheetData>
